--- a/FloatReport.xlsx
+++ b/FloatReport.xlsx
@@ -31,99 +31,99 @@
     <t xml:space="preserve">               Route Totals</t>
   </si>
   <si>
+    <t>Bonnie Sloan Post 28</t>
+  </si>
+  <si>
+    <t>VFW 3281</t>
+  </si>
+  <si>
+    <t>Micks Lounge</t>
+  </si>
+  <si>
+    <t>Knights of Columbus Bingo Hall</t>
+  </si>
+  <si>
     <t>Vic's Cafe</t>
   </si>
   <si>
+    <t>American Legion Post 42</t>
+  </si>
+  <si>
+    <t>VFW Hobart Beach Post</t>
+  </si>
+  <si>
+    <t>Pizza Place @ Hikes Point</t>
+  </si>
+  <si>
+    <t>Pastime Grill &amp; Pub</t>
+  </si>
+  <si>
+    <t>Residence Inn Louisville Old Henry</t>
+  </si>
+  <si>
+    <t>Pale Moon Tattoo</t>
+  </si>
+  <si>
+    <t>AmVets Daniel Boone Post</t>
+  </si>
+  <si>
+    <t>Hoosier Hills</t>
+  </si>
+  <si>
+    <t>American Legion #335</t>
+  </si>
+  <si>
+    <t>Calumet Club</t>
+  </si>
+  <si>
+    <t>Elks Lodge #270</t>
+  </si>
+  <si>
+    <t>Copper Kettle</t>
+  </si>
+  <si>
+    <t>VFW Post 1083</t>
+  </si>
+  <si>
+    <t>Our Lady of Perpetual Hops</t>
+  </si>
+  <si>
+    <t>VFW 1427</t>
+  </si>
+  <si>
+    <t>Holiday Inn Louisville Downtown</t>
+  </si>
+  <si>
+    <t>Mill creek VFW Post 542 Louisville</t>
+  </si>
+  <si>
+    <t>VFW 6582 Scott County</t>
+  </si>
+  <si>
+    <t>Kindred Hospital Louisville</t>
+  </si>
+  <si>
+    <t>VFW #1832</t>
+  </si>
+  <si>
+    <t>Hoopsters Jeffersonville</t>
+  </si>
+  <si>
+    <t>Mac's Hideaway</t>
+  </si>
+  <si>
+    <t>American Legion #204</t>
+  </si>
+  <si>
+    <t>Krazy Daves</t>
+  </si>
+  <si>
     <t>American Legion Post 234</t>
   </si>
   <si>
-    <t>Pastime Grill &amp; Pub</t>
-  </si>
-  <si>
-    <t>Mill creek VFW Post 542 Louisville</t>
-  </si>
-  <si>
-    <t>Hoosier Hills</t>
-  </si>
-  <si>
-    <t>American Legion #335</t>
-  </si>
-  <si>
-    <t>Bonnie Sloan Post 28</t>
-  </si>
-  <si>
-    <t>American Legion Post 42</t>
-  </si>
-  <si>
-    <t>VFW Post 1083</t>
-  </si>
-  <si>
-    <t>AmVets Daniel Boone Post</t>
-  </si>
-  <si>
-    <t>American Legion #204</t>
-  </si>
-  <si>
-    <t>VFW 3281</t>
-  </si>
-  <si>
-    <t>Pizza Place @ Hikes Point</t>
-  </si>
-  <si>
-    <t>Pale Moon Tattoo</t>
-  </si>
-  <si>
-    <t>VFW 1427</t>
-  </si>
-  <si>
-    <t>Residence Inn Louisville Old Henry</t>
-  </si>
-  <si>
-    <t>Micks Lounge</t>
-  </si>
-  <si>
-    <t>Mac's Hideaway</t>
-  </si>
-  <si>
-    <t>VFW #1832</t>
-  </si>
-  <si>
-    <t>Elks Lodge #270</t>
-  </si>
-  <si>
-    <t>VFW Hobart Beach Post</t>
-  </si>
-  <si>
-    <t>Kindred Hospital Louisville</t>
-  </si>
-  <si>
-    <t>Holiday Inn Louisville Downtown</t>
-  </si>
-  <si>
     <t>Resch's Tavern</t>
   </si>
   <si>
-    <t>Knights of Columbus Bingo Hall</t>
-  </si>
-  <si>
-    <t>VFW 6582 Scott County</t>
-  </si>
-  <si>
-    <t>Calumet Club</t>
-  </si>
-  <si>
-    <t>Copper Kettle</t>
-  </si>
-  <si>
-    <t>Hoopsters Jeffersonville</t>
-  </si>
-  <si>
-    <t>Our Lady of Perpetual Hops</t>
-  </si>
-  <si>
-    <t>Krazy Daves</t>
-  </si>
-  <si>
     <t>Pride Bar</t>
   </si>
   <si>
@@ -133,7 +133,7 @@
     <t>Storz Cash Festival</t>
   </si>
   <si>
-    <t>Report ran: 20240726</t>
+    <t>Report ran: 20240806</t>
   </si>
 </sst>
 </file>
@@ -522,13 +522,13 @@
         <v>4</v>
       </c>
       <c r="B3">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C3">
-        <v>161560</v>
+        <v>119020</v>
       </c>
       <c r="D3">
-        <v>2900</v>
+        <v>2280</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -539,10 +539,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>18460</v>
+        <v>14960</v>
       </c>
       <c r="D4">
-        <v>20</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -553,10 +553,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>8840</v>
+        <v>14120</v>
       </c>
       <c r="D5">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -567,10 +567,10 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8700</v>
+        <v>8320</v>
       </c>
       <c r="D6">
-        <v>500</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7860</v>
+        <v>7300</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -595,10 +595,10 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>6560</v>
+        <v>5460</v>
       </c>
       <c r="D8">
-        <v>40</v>
+        <v>940</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -609,10 +609,10 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>6540</v>
+        <v>4980</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>40</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -623,10 +623,10 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>6300</v>
+        <v>4760</v>
       </c>
       <c r="D10">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -637,10 +637,10 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>5920</v>
+        <v>4360</v>
       </c>
       <c r="D11">
-        <v>0</v>
+        <v>420</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -651,7 +651,7 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>5480</v>
+        <v>4340</v>
       </c>
       <c r="D12">
         <v>0</v>
@@ -665,7 +665,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>5460</v>
+        <v>4220</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>5420</v>
+        <v>3980</v>
       </c>
       <c r="D14">
         <v>0</v>
@@ -690,10 +690,10 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C15">
-        <v>5220</v>
+        <v>3500</v>
       </c>
       <c r="D15">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>5160</v>
+        <v>3360</v>
       </c>
       <c r="D16">
-        <v>80</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -721,7 +721,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5140</v>
+        <v>2940</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -735,7 +735,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>5020</v>
+        <v>2900</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -749,10 +749,10 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>4800</v>
+        <v>2820</v>
       </c>
       <c r="D19">
-        <v>0</v>
+        <v>320</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -763,10 +763,10 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>4460</v>
+        <v>2720</v>
       </c>
       <c r="D20">
-        <v>600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -777,10 +777,10 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>4420</v>
+        <v>2560</v>
       </c>
       <c r="D21">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:4">
@@ -791,7 +791,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>4180</v>
+        <v>2540</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -805,7 +805,7 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>3940</v>
+        <v>2400</v>
       </c>
       <c r="D23">
         <v>0</v>
@@ -819,10 +819,10 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>3940</v>
+        <v>2260</v>
       </c>
       <c r="D24">
-        <v>460</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>3900</v>
+        <v>2140</v>
       </c>
       <c r="D25">
         <v>0</v>
@@ -847,7 +847,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>3480</v>
+        <v>1900</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -861,10 +861,10 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>3400</v>
+        <v>1800</v>
       </c>
       <c r="D27">
-        <v>240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -875,10 +875,10 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>3400</v>
+        <v>1660</v>
       </c>
       <c r="D28">
-        <v>780</v>
+        <v>120</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -889,7 +889,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>3380</v>
+        <v>1460</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>2900</v>
+        <v>1300</v>
       </c>
       <c r="D30">
         <v>0</v>
@@ -917,7 +917,7 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>2720</v>
+        <v>1220</v>
       </c>
       <c r="D31">
         <v>0</v>
@@ -931,7 +931,7 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>1920</v>
+        <v>1140</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -945,7 +945,7 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>1780</v>
+        <v>600</v>
       </c>
       <c r="D33">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>1500</v>
+        <v>520</v>
       </c>
       <c r="D34">
-        <v>20</v>
+        <v>420</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>1360</v>
+        <v>480</v>
       </c>
       <c r="D35">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:4">

--- a/FloatReport.xlsx
+++ b/FloatReport.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
   <si>
     <t>Location</t>
   </si>
@@ -31,109 +31,112 @@
     <t xml:space="preserve">               Route Totals</t>
   </si>
   <si>
+    <t>Vic's Cafe</t>
+  </si>
+  <si>
+    <t>American Legion Post 234</t>
+  </si>
+  <si>
+    <t>American Legion Post 42</t>
+  </si>
+  <si>
+    <t>VFW 3281</t>
+  </si>
+  <si>
+    <t>VFW Hobart Beach Post</t>
+  </si>
+  <si>
+    <t>Pastime Grill &amp; Pub</t>
+  </si>
+  <si>
+    <t>Pizza Place @ Hikes Point</t>
+  </si>
+  <si>
     <t>Bonnie Sloan Post 28</t>
   </si>
   <si>
-    <t>VFW 3281</t>
+    <t>Kindred Hospital Louisville</t>
+  </si>
+  <si>
+    <t>American Legion #204</t>
+  </si>
+  <si>
+    <t>Hoosier Hills</t>
+  </si>
+  <si>
+    <t>American Legion #335</t>
+  </si>
+  <si>
+    <t>VFW Post 1083</t>
+  </si>
+  <si>
+    <t>VFW 6582 Scott County</t>
+  </si>
+  <si>
+    <t>VFW 1427</t>
+  </si>
+  <si>
+    <t>VFW #1832</t>
+  </si>
+  <si>
+    <t>Pride Bar</t>
+  </si>
+  <si>
+    <t>Mill creek VFW Post 542 Louisville</t>
+  </si>
+  <si>
+    <t>Residence Inn Louisville Old Henry</t>
+  </si>
+  <si>
+    <t>Resch's Tavern</t>
+  </si>
+  <si>
+    <t>Mac's Hideaway</t>
+  </si>
+  <si>
+    <t>SCS Festival2</t>
+  </si>
+  <si>
+    <t>Calumet Club</t>
+  </si>
+  <si>
+    <t>AmVets Daniel Boone Post</t>
+  </si>
+  <si>
+    <t>Krazy Daves</t>
+  </si>
+  <si>
+    <t>Copper Kettle</t>
+  </si>
+  <si>
+    <t>Pale Moon Tattoo</t>
   </si>
   <si>
     <t>Micks Lounge</t>
   </si>
   <si>
+    <t>Elks Lodge #270</t>
+  </si>
+  <si>
+    <t>Holiday Inn Louisville Downtown</t>
+  </si>
+  <si>
+    <t>Our Lady of Perpetual Hops</t>
+  </si>
+  <si>
     <t>Knights of Columbus Bingo Hall</t>
   </si>
   <si>
-    <t>Vic's Cafe</t>
-  </si>
-  <si>
-    <t>American Legion Post 42</t>
-  </si>
-  <si>
-    <t>VFW Hobart Beach Post</t>
-  </si>
-  <si>
-    <t>Pizza Place @ Hikes Point</t>
-  </si>
-  <si>
-    <t>Pastime Grill &amp; Pub</t>
-  </si>
-  <si>
-    <t>Residence Inn Louisville Old Henry</t>
-  </si>
-  <si>
-    <t>Pale Moon Tattoo</t>
-  </si>
-  <si>
-    <t>AmVets Daniel Boone Post</t>
-  </si>
-  <si>
-    <t>Hoosier Hills</t>
-  </si>
-  <si>
-    <t>American Legion #335</t>
-  </si>
-  <si>
-    <t>Calumet Club</t>
-  </si>
-  <si>
-    <t>Elks Lodge #270</t>
-  </si>
-  <si>
-    <t>Copper Kettle</t>
-  </si>
-  <si>
-    <t>VFW Post 1083</t>
-  </si>
-  <si>
-    <t>Our Lady of Perpetual Hops</t>
-  </si>
-  <si>
-    <t>VFW 1427</t>
-  </si>
-  <si>
-    <t>Holiday Inn Louisville Downtown</t>
-  </si>
-  <si>
-    <t>Mill creek VFW Post 542 Louisville</t>
-  </si>
-  <si>
-    <t>VFW 6582 Scott County</t>
-  </si>
-  <si>
-    <t>Kindred Hospital Louisville</t>
-  </si>
-  <si>
-    <t>VFW #1832</t>
-  </si>
-  <si>
     <t>Hoopsters Jeffersonville</t>
   </si>
   <si>
-    <t>Mac's Hideaway</t>
-  </si>
-  <si>
-    <t>American Legion #204</t>
-  </si>
-  <si>
-    <t>Krazy Daves</t>
-  </si>
-  <si>
-    <t>American Legion Post 234</t>
-  </si>
-  <si>
-    <t>Resch's Tavern</t>
-  </si>
-  <si>
-    <t>Pride Bar</t>
-  </si>
-  <si>
-    <t>SCS Festival2</t>
-  </si>
-  <si>
     <t>Storz Cash Festival</t>
   </si>
   <si>
-    <t>Report ran: 20240806</t>
+    <t>Le Moo Louisville</t>
+  </si>
+  <si>
+    <t>Report ran: 20240816</t>
   </si>
 </sst>
 </file>
@@ -491,7 +494,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A2:D38"/>
+  <dimension ref="A2:D39"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0"/>
   </sheetViews>
@@ -525,10 +528,10 @@
         <v>20</v>
       </c>
       <c r="C3">
-        <v>119020</v>
+        <v>162100</v>
       </c>
       <c r="D3">
-        <v>2280</v>
+        <v>5500</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -539,10 +542,10 @@
         <v>0</v>
       </c>
       <c r="C4">
-        <v>14960</v>
+        <v>12600</v>
       </c>
       <c r="D4">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -553,10 +556,10 @@
         <v>0</v>
       </c>
       <c r="C5">
-        <v>14120</v>
+        <v>10500</v>
       </c>
       <c r="D5">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -567,10 +570,10 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>8320</v>
+        <v>10220</v>
       </c>
       <c r="D6">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -581,7 +584,7 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>7300</v>
+        <v>9380</v>
       </c>
       <c r="D7">
         <v>0</v>
@@ -595,10 +598,10 @@
         <v>0</v>
       </c>
       <c r="C8">
-        <v>5460</v>
+        <v>8660</v>
       </c>
       <c r="D8">
-        <v>940</v>
+        <v>700</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -609,10 +612,10 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>4980</v>
+        <v>8380</v>
       </c>
       <c r="D9">
-        <v>40</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -623,10 +626,10 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>4760</v>
+        <v>7960</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -637,10 +640,10 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>4360</v>
+        <v>7420</v>
       </c>
       <c r="D11">
-        <v>420</v>
+        <v>60</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -651,10 +654,10 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>4340</v>
+        <v>6180</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -665,7 +668,7 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>4220</v>
+        <v>6080</v>
       </c>
       <c r="D13">
         <v>0</v>
@@ -679,10 +682,10 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>3980</v>
+        <v>5220</v>
       </c>
       <c r="D14">
-        <v>0</v>
+        <v>260</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -690,13 +693,13 @@
         <v>16</v>
       </c>
       <c r="B15">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="C15">
-        <v>3500</v>
+        <v>5180</v>
       </c>
       <c r="D15">
-        <v>0</v>
+        <v>200</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -707,7 +710,7 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>3360</v>
+        <v>5040</v>
       </c>
       <c r="D16">
         <v>0</v>
@@ -721,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>2940</v>
+        <v>4740</v>
       </c>
       <c r="D17">
         <v>0</v>
@@ -735,7 +738,7 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>2900</v>
+        <v>4720</v>
       </c>
       <c r="D18">
         <v>0</v>
@@ -749,10 +752,10 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>2820</v>
+        <v>4500</v>
       </c>
       <c r="D19">
-        <v>320</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -763,10 +766,10 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>2720</v>
+        <v>4140</v>
       </c>
       <c r="D20">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -777,7 +780,7 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>2560</v>
+        <v>4140</v>
       </c>
       <c r="D21">
         <v>0</v>
@@ -791,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>2540</v>
+        <v>4060</v>
       </c>
       <c r="D22">
         <v>0</v>
@@ -805,10 +808,10 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>2400</v>
+        <v>3980</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>240</v>
       </c>
     </row>
     <row r="24" spans="1:4">
@@ -819,10 +822,10 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>2260</v>
+        <v>3320</v>
       </c>
       <c r="D24">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="25" spans="1:4">
@@ -833,10 +836,10 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>2140</v>
+        <v>3240</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>60</v>
       </c>
     </row>
     <row r="26" spans="1:4">
@@ -847,7 +850,7 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>1900</v>
+        <v>2900</v>
       </c>
       <c r="D26">
         <v>0</v>
@@ -858,13 +861,13 @@
         <v>28</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="C27">
-        <v>1800</v>
+        <v>2880</v>
       </c>
       <c r="D27">
-        <v>0</v>
+        <v>20</v>
       </c>
     </row>
     <row r="28" spans="1:4">
@@ -875,10 +878,10 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>1660</v>
+        <v>2880</v>
       </c>
       <c r="D28">
-        <v>120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:4">
@@ -889,7 +892,7 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>1460</v>
+        <v>2720</v>
       </c>
       <c r="D29">
         <v>0</v>
@@ -903,10 +906,10 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>1300</v>
+        <v>2460</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>280</v>
       </c>
     </row>
     <row r="31" spans="1:4">
@@ -917,10 +920,10 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>1220</v>
+        <v>1700</v>
       </c>
       <c r="D31">
-        <v>0</v>
+        <v>80</v>
       </c>
     </row>
     <row r="32" spans="1:4">
@@ -931,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>1140</v>
+        <v>1520</v>
       </c>
       <c r="D32">
         <v>0</v>
@@ -945,10 +948,10 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>600</v>
+        <v>1400</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>300</v>
       </c>
     </row>
     <row r="34" spans="1:4">
@@ -959,10 +962,10 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>520</v>
+        <v>1380</v>
       </c>
       <c r="D34">
-        <v>420</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:4">
@@ -973,10 +976,10 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>480</v>
+        <v>1380</v>
       </c>
       <c r="D35">
-        <v>0</v>
+        <v>1080</v>
       </c>
     </row>
     <row r="36" spans="1:4">
@@ -987,7 +990,7 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>0</v>
+        <v>1220</v>
       </c>
       <c r="D36">
         <v>0</v>
@@ -1010,6 +1013,11 @@
     <row r="38" spans="1:4">
       <c r="A38" t="s">
         <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" t="s">
+        <v>40</v>
       </c>
     </row>
   </sheetData>
